--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_5_7.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_5_7.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -26341,7 +26343,7 @@
         <v>37134.75141293493</v>
       </c>
       <c r="L2" t="n">
-        <v>37134.75141293492</v>
+        <v>37134.75141293493</v>
       </c>
       <c r="M2" t="n">
         <v>37134.75141293493</v>
@@ -26549,7 +26551,7 @@
         <v>10609.92897512426</v>
       </c>
       <c r="L6" t="n">
-        <v>10609.92897512425</v>
+        <v>10609.92897512426</v>
       </c>
       <c r="M6" t="n">
         <v>10609.92897512426</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_5_7.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_5_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3219.590738035249</v>
+        <v>-129079.8435758902</v>
       </c>
     </row>
     <row r="7">
@@ -26316,16 +26316,16 @@
         <v>37134.75141293493</v>
       </c>
       <c r="C2" t="n">
-        <v>37134.75141293493</v>
+        <v>37134.75141293492</v>
       </c>
       <c r="D2" t="n">
-        <v>37134.75141293493</v>
+        <v>37134.75141293494</v>
       </c>
       <c r="E2" t="n">
         <v>37134.75141293493</v>
       </c>
       <c r="F2" t="n">
-        <v>37134.75141293493</v>
+        <v>37134.75141293494</v>
       </c>
       <c r="G2" t="n">
         <v>37134.75141293493</v>
@@ -26355,7 +26355,7 @@
         <v>37134.75141293493</v>
       </c>
       <c r="P2" t="n">
-        <v>37134.75141293493</v>
+        <v>37134.75141293494</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-23017.67102487574</v>
+        <v>-38060.69175268702</v>
       </c>
       <c r="C6" t="n">
-        <v>-23017.67102487574</v>
+        <v>-38060.69175268702</v>
       </c>
       <c r="D6" t="n">
-        <v>-23017.67102487574</v>
+        <v>-38060.69175268701</v>
       </c>
       <c r="E6" t="n">
-        <v>10609.92897512426</v>
+        <v>-4433.091752687018</v>
       </c>
       <c r="F6" t="n">
-        <v>10609.92897512426</v>
+        <v>-4433.091752687011</v>
       </c>
       <c r="G6" t="n">
-        <v>10609.92897512426</v>
+        <v>-4433.091752687018</v>
       </c>
       <c r="H6" t="n">
-        <v>10609.92897512426</v>
+        <v>-4433.091752687018</v>
       </c>
       <c r="I6" t="n">
-        <v>10609.92897512426</v>
+        <v>-4433.091752687018</v>
       </c>
       <c r="J6" t="n">
-        <v>10609.92897512426</v>
+        <v>-4433.091752687018</v>
       </c>
       <c r="K6" t="n">
-        <v>10609.92897512426</v>
+        <v>-4433.091752687018</v>
       </c>
       <c r="L6" t="n">
-        <v>10609.92897512426</v>
+        <v>-4433.091752687018</v>
       </c>
       <c r="M6" t="n">
-        <v>10609.92897512426</v>
+        <v>-4433.091752687018</v>
       </c>
       <c r="N6" t="n">
-        <v>10609.92897512426</v>
+        <v>-4433.091752687018</v>
       </c>
       <c r="O6" t="n">
-        <v>10609.92897512426</v>
+        <v>-4433.091752687018</v>
       </c>
       <c r="P6" t="n">
-        <v>10609.92897512426</v>
+        <v>-4433.091752687003</v>
       </c>
     </row>
   </sheetData>
